--- a/AppDynamics-Vlab.xlsx
+++ b/AppDynamics-Vlab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APPD-Errison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A58243-738C-4AB0-A82F-76EEC4B606FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DD307-E6B3-4C5C-9DAF-DB505577AAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -115,13 +115,46 @@
   </si>
   <si>
     <t>Raja . A </t>
+  </si>
+  <si>
+    <t>IP ADDRESS 1</t>
+  </si>
+  <si>
+    <t>174.129.76.250</t>
+  </si>
+  <si>
+    <t>54.234.244.134</t>
+  </si>
+  <si>
+    <t>34.228.111.60</t>
+  </si>
+  <si>
+    <t>3.91.81.131</t>
+  </si>
+  <si>
+    <t>54.83.64.104</t>
+  </si>
+  <si>
+    <t>54.226.170.119</t>
+  </si>
+  <si>
+    <t>184.73.109.92</t>
+  </si>
+  <si>
+    <t>54.88.214.75</t>
+  </si>
+  <si>
+    <t>100.27.199.121</t>
+  </si>
+  <si>
+    <t>98.81.211.59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +183,12 @@
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -219,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,9 +605,10 @@
     <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,8 +630,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -612,8 +656,11 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -635,8 +682,11 @@
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -658,8 +708,11 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -681,8 +734,11 @@
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -704,8 +760,11 @@
       <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -727,8 +786,11 @@
       <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -750,8 +812,11 @@
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -773,8 +838,11 @@
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -796,8 +864,11 @@
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -818,6 +889,9 @@
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/AppDynamics-Vlab.xlsx
+++ b/AppDynamics-Vlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APPD-Errison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DD307-E6B3-4C5C-9DAF-DB505577AAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCA789-0BB3-4BF8-8732-2B182289CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>URL</t>
   </si>
@@ -148,6 +148,72 @@
   </si>
   <si>
     <t>98.81.211.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows RDP </t>
+  </si>
+  <si>
+    <t>3.110.104.169</t>
+  </si>
+  <si>
+    <t>52.66.236.116</t>
+  </si>
+  <si>
+    <t>43.204.108.168</t>
+  </si>
+  <si>
+    <t>13.203.77.79</t>
+  </si>
+  <si>
+    <t>3.110.196.91</t>
+  </si>
+  <si>
+    <t>3.111.41.15</t>
+  </si>
+  <si>
+    <t>65.0.177.190</t>
+  </si>
+  <si>
+    <t>13.127.63.204</t>
+  </si>
+  <si>
+    <t>3.111.42.143</t>
+  </si>
+  <si>
+    <t>13.233.13.254</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>LF1lm7K-8hbfzZ2pNY4GW!JaL?ER4Z$%</t>
+  </si>
+  <si>
+    <t>TQ&amp;ReOp%K!p66JDFRjvUVFBE1$&amp;opm**</t>
+  </si>
+  <si>
+    <t>xsdkg@5Dx4ws%g?H1UWIL5Dx)qQxq0tv</t>
+  </si>
+  <si>
+    <t>iAjxYnAS?F4DO!r!YMApri$wiwi3)39M</t>
+  </si>
+  <si>
+    <t>FVY2AyUb%y4.b3h@Q4);1(SZh7)1jUMd</t>
+  </si>
+  <si>
+    <t>Oh?y60;)w8.YBUQ0U&amp;dj7.Y*V!6x-s1z</t>
+  </si>
+  <si>
+    <t>@VJ6Eh-X$GJdFm=eAAgr!M0MdG4neh&amp;t</t>
+  </si>
+  <si>
+    <t>e?&amp;$z!P(ECNe&amp;mYH;WtKNAI%n7ZR3Y&amp;4</t>
+  </si>
+  <si>
+    <t>xF$OSWi%T4xBB-C@AGh97$oym3O2m4d4</t>
+  </si>
+  <si>
+    <t>ktXX4M0cz%u)=6.qA*&amp;b6X86b1gEoJ1d</t>
   </si>
 </sst>
 </file>
@@ -217,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -240,19 +306,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -269,13 +322,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -606,9 +659,12 @@
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,12 +689,21 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -656,15 +721,24 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -682,15 +756,24 @@
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -708,15 +791,24 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -734,15 +826,24 @@
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -760,15 +861,24 @@
       <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -786,15 +896,24 @@
       <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -812,15 +931,24 @@
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -838,15 +966,24 @@
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -864,15 +1001,24 @@
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -890,8 +1036,17 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/AppDynamics-Vlab.xlsx
+++ b/AppDynamics-Vlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APPD-Errison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCA789-0BB3-4BF8-8732-2B182289CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFC688-7766-4448-B631-549E1317E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
@@ -214,6 +214,39 @@
   </si>
   <si>
     <t>ktXX4M0cz%u)=6.qA*&amp;b6X86b1gEoJ1d</t>
+  </si>
+  <si>
+    <t>IP Address2</t>
+  </si>
+  <si>
+    <t>13.201.42.8</t>
+  </si>
+  <si>
+    <t>65.0.203.86</t>
+  </si>
+  <si>
+    <t>52.66.64.145</t>
+  </si>
+  <si>
+    <t>65.0.205.186</t>
+  </si>
+  <si>
+    <t>13.126.4.170</t>
+  </si>
+  <si>
+    <t>52.66.211.13</t>
+  </si>
+  <si>
+    <t>13.201.136.136</t>
+  </si>
+  <si>
+    <t>13.233.129.41</t>
+  </si>
+  <si>
+    <t>3.108.223.204</t>
+  </si>
+  <si>
+    <t>35.154.18.145</t>
   </si>
 </sst>
 </file>
@@ -311,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +362,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,9 +696,10 @@
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,8 +733,11 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -733,8 +771,11 @@
       <c r="K2" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="L2" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -768,8 +809,11 @@
       <c r="K3" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -803,8 +847,11 @@
       <c r="K4" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="L4" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -838,8 +885,11 @@
       <c r="K5" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="L5" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -873,8 +923,11 @@
       <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -908,8 +961,11 @@
       <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="L7" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -943,8 +999,11 @@
       <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="L8" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -978,8 +1037,11 @@
       <c r="K9" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="L9" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1013,8 +1075,11 @@
       <c r="K10" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L10" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1047,6 +1112,9 @@
       </c>
       <c r="K11" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/AppDynamics-Vlab.xlsx
+++ b/AppDynamics-Vlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APPD-Errison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFC688-7766-4448-B631-549E1317E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2E8CA-FBEF-4FEB-AD44-9693A9097F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>URL</t>
   </si>
@@ -247,6 +247,39 @@
   </si>
   <si>
     <t>35.154.18.145</t>
+  </si>
+  <si>
+    <t>IP Address3</t>
+  </si>
+  <si>
+    <t>13.233.168.190</t>
+  </si>
+  <si>
+    <t>13.201.119.75</t>
+  </si>
+  <si>
+    <t>13.233.85.17</t>
+  </si>
+  <si>
+    <t>43.205.231.111</t>
+  </si>
+  <si>
+    <t>3.108.61.207</t>
+  </si>
+  <si>
+    <t>13.201.3.165</t>
+  </si>
+  <si>
+    <t>13.201.45.225</t>
+  </si>
+  <si>
+    <t>13.233.143.125</t>
+  </si>
+  <si>
+    <t>15.206.125.144</t>
+  </si>
+  <si>
+    <t>3.110.133.39</t>
   </si>
 </sst>
 </file>
@@ -344,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,7 +395,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,10 +728,10 @@
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,8 +768,11 @@
       <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -771,11 +806,14 @@
       <c r="K2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -809,11 +847,14 @@
       <c r="K3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -847,11 +888,14 @@
       <c r="K4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -885,11 +929,14 @@
       <c r="K5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -923,11 +970,14 @@
       <c r="K6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -961,11 +1011,14 @@
       <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="M7" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -999,11 +1052,14 @@
       <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="M8" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1037,11 +1093,14 @@
       <c r="K9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="M9" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1075,11 +1134,14 @@
       <c r="K10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="M10" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1113,8 +1175,11 @@
       <c r="K11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/AppDynamics-Vlab.xlsx
+++ b/AppDynamics-Vlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APPD-Errison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2E8CA-FBEF-4FEB-AD44-9693A9097F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1841A3-A89E-4A84-8556-62426D8F0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>URL</t>
   </si>
@@ -280,6 +280,39 @@
   </si>
   <si>
     <t>3.110.133.39</t>
+  </si>
+  <si>
+    <t>IP Address4</t>
+  </si>
+  <si>
+    <t>44.201.90.191</t>
+  </si>
+  <si>
+    <t>174.129.128.35</t>
+  </si>
+  <si>
+    <t>3.83.45.68</t>
+  </si>
+  <si>
+    <t>3.86.164.182</t>
+  </si>
+  <si>
+    <t>34.230.74.252</t>
+  </si>
+  <si>
+    <t>44.212.56.244</t>
+  </si>
+  <si>
+    <t>3.89.31.66</t>
+  </si>
+  <si>
+    <t>18.212.9.34</t>
+  </si>
+  <si>
+    <t>44.206.229.188</t>
+  </si>
+  <si>
+    <t>54.84.134.0</t>
   </si>
 </sst>
 </file>
@@ -349,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -372,12 +405,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,6 +441,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,10 +779,10 @@
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,11 +819,14 @@
       <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -809,11 +863,14 @@
       <c r="L2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -850,11 +907,14 @@
       <c r="L3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -891,11 +951,14 @@
       <c r="L4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -932,11 +995,14 @@
       <c r="L5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -973,11 +1039,14 @@
       <c r="L6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1014,11 +1083,14 @@
       <c r="L7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1055,11 +1127,14 @@
       <c r="L8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1096,11 +1171,14 @@
       <c r="L9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="N9" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1137,11 +1215,14 @@
       <c r="L10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1178,9 +1259,15 @@
       <c r="L11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="N11" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
